--- a/dynamics/src/dynamics/xlsx/task_point_5dof.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point_5dof.xlsx
@@ -423,202 +423,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.203</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.164</v>
+        <v>0.103</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.075</v>
+        <v>-0.328</v>
       </c>
       <c r="D1" t="n">
-        <v>-171</v>
+        <v>86</v>
       </c>
       <c r="E1" t="n">
-        <v>-78</v>
+        <v>-6</v>
       </c>
       <c r="F1" t="n">
-        <v>66</v>
+        <v>-161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.137</v>
+        <v>-0.329</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03</v>
+        <v>-0.235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.43</v>
+        <v>0.11</v>
       </c>
       <c r="D2" t="n">
-        <v>140</v>
+        <v>-74</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.165</v>
+        <v>0.111</v>
       </c>
       <c r="B3" t="n">
-        <v>0.183</v>
+        <v>-0.131</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.197</v>
+        <v>0.464</v>
       </c>
       <c r="D3" t="n">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E3" t="n">
-        <v>-7</v>
+        <v>-78</v>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.212</v>
+        <v>-0.015</v>
       </c>
       <c r="B4" t="n">
-        <v>0.156</v>
+        <v>-0.379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.643</v>
+        <v>-0.145</v>
       </c>
       <c r="D4" t="n">
-        <v>-36</v>
+        <v>-50</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>-59</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.134</v>
+        <v>-0.135</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.176</v>
+        <v>0.189</v>
       </c>
       <c r="C5" t="n">
-        <v>0.158</v>
+        <v>-0.044</v>
       </c>
       <c r="D5" t="n">
-        <v>-155</v>
+        <v>154</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.184</v>
+        <v>-0.3</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.22</v>
+        <v>0.109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101</v>
+        <v>0.457</v>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>-130</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>-18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.099</v>
+        <v>0.04</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.19</v>
+        <v>0.244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.658</v>
+        <v>0.149</v>
       </c>
       <c r="D7" t="n">
-        <v>-163</v>
+        <v>-94</v>
       </c>
       <c r="E7" t="n">
-        <v>-43</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="n">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.094</v>
+        <v>-0.336</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.243</v>
+        <v>0.019</v>
       </c>
       <c r="C8" t="n">
-        <v>0.576</v>
+        <v>0.399</v>
       </c>
       <c r="D8" t="n">
-        <v>-66</v>
+        <v>-112</v>
       </c>
       <c r="E8" t="n">
-        <v>-52</v>
+        <v>-10</v>
       </c>
       <c r="F8" t="n">
-        <v>106</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.155</v>
+        <v>-0.057</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.006</v>
+        <v>-0.342</v>
       </c>
       <c r="C9" t="n">
-        <v>0.098</v>
+        <v>0.254</v>
       </c>
       <c r="D9" t="n">
-        <v>98</v>
+        <v>-121</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>-149</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.037</v>
+        <v>-0.01</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.24</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.421</v>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>-36</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="F10" t="n">
-        <v>-28</v>
+        <v>-37</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/xlsx/task_point_5dof.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point_5dof.xlsx
@@ -423,202 +423,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.008999999999999999</v>
+        <v>-0.26</v>
       </c>
       <c r="B1" t="n">
-        <v>0.103</v>
+        <v>-0.073</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.328</v>
+        <v>-0.133</v>
       </c>
       <c r="D1" t="n">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E1" t="n">
-        <v>-6</v>
+        <v>19</v>
       </c>
       <c r="F1" t="n">
-        <v>-161</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.329</v>
+        <v>0.114</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.235</v>
+        <v>0.172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11</v>
+        <v>0.507</v>
       </c>
       <c r="D2" t="n">
-        <v>-74</v>
+        <v>-89</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>-164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.111</v>
+        <v>0.172</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.131</v>
+        <v>-0.077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.464</v>
+        <v>0.156</v>
       </c>
       <c r="D3" t="n">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
-        <v>-78</v>
+        <v>86</v>
       </c>
       <c r="F3" t="n">
-        <v>-61</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.015</v>
+        <v>-0.059</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.379</v>
+        <v>-0.222</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>-50</v>
+        <v>108</v>
       </c>
       <c r="E4" t="n">
-        <v>-59</v>
+        <v>-10</v>
       </c>
       <c r="F4" t="n">
-        <v>59</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.135</v>
+        <v>0.191</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189</v>
+        <v>-0.379</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.044</v>
+        <v>0.238</v>
       </c>
       <c r="D5" t="n">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>59</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.3</v>
+        <v>-0.196</v>
       </c>
       <c r="B6" t="n">
-        <v>0.109</v>
+        <v>-0.002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.457</v>
+        <v>0.243</v>
       </c>
       <c r="D6" t="n">
-        <v>-130</v>
+        <v>-51</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>-49</v>
       </c>
       <c r="F6" t="n">
-        <v>61</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04</v>
+        <v>-0.093</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244</v>
+        <v>0.24</v>
       </c>
       <c r="C7" t="n">
-        <v>0.149</v>
+        <v>0.472</v>
       </c>
       <c r="D7" t="n">
-        <v>-94</v>
+        <v>92</v>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.336</v>
+        <v>-0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>0.019</v>
+        <v>-0.09</v>
       </c>
       <c r="C8" t="n">
-        <v>0.399</v>
+        <v>0.161</v>
       </c>
       <c r="D8" t="n">
-        <v>-112</v>
+        <v>115</v>
       </c>
       <c r="E8" t="n">
-        <v>-10</v>
+        <v>-36</v>
       </c>
       <c r="F8" t="n">
-        <v>-134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.057</v>
+        <v>0.116</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.342</v>
+        <v>-0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>0.254</v>
+        <v>0.148</v>
       </c>
       <c r="D9" t="n">
-        <v>-121</v>
+        <v>-78</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.01</v>
+        <v>0.025</v>
       </c>
       <c r="B10" t="n">
-        <v>0.11</v>
+        <v>-0.135</v>
       </c>
       <c r="C10" t="n">
-        <v>0.421</v>
+        <v>0.158</v>
       </c>
       <c r="D10" t="n">
-        <v>-36</v>
+        <v>-95</v>
       </c>
       <c r="E10" t="n">
-        <v>-44</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>-37</v>
+        <v>-149</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/xlsx/task_point_5dof.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point_5dof.xlsx
@@ -423,202 +423,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.26</v>
+        <v>0.339</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.073</v>
+        <v>0.094</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.133</v>
+        <v>0.123</v>
       </c>
       <c r="D1" t="n">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="E1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.114</v>
+        <v>0.135</v>
       </c>
       <c r="B2" t="n">
-        <v>0.172</v>
+        <v>-0.043</v>
       </c>
       <c r="C2" t="n">
-        <v>0.507</v>
+        <v>0.322</v>
       </c>
       <c r="D2" t="n">
-        <v>-89</v>
+        <v>-162</v>
       </c>
       <c r="E2" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>-164</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.172</v>
+        <v>-0.092</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.077</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.156</v>
+        <v>0.249</v>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>-32</v>
       </c>
       <c r="F3" t="n">
-        <v>-172</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.059</v>
+        <v>0.256</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.222</v>
+        <v>-0.101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.435</v>
       </c>
       <c r="D4" t="n">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="E4" t="n">
-        <v>-10</v>
+        <v>-80</v>
       </c>
       <c r="F4" t="n">
-        <v>-140</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.191</v>
+        <v>0.161</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.379</v>
+        <v>0.095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238</v>
+        <v>-0.241</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="E5" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>55</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.196</v>
+        <v>0.208</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.002</v>
+        <v>0.083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.243</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>-51</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-13</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.093</v>
+        <v>0.104</v>
       </c>
       <c r="B7" t="n">
-        <v>0.24</v>
+        <v>-0.042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.472</v>
+        <v>0.333</v>
       </c>
       <c r="D7" t="n">
-        <v>92</v>
+        <v>-87</v>
       </c>
       <c r="E7" t="n">
-        <v>-10</v>
+        <v>-82</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2</v>
+        <v>-0.003</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.09</v>
+        <v>-0.351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.161</v>
+        <v>-0.002</v>
       </c>
       <c r="D8" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" t="n">
-        <v>-36</v>
+        <v>-25</v>
       </c>
       <c r="F8" t="n">
-        <v>136</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.116</v>
+        <v>0.333</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.017</v>
+        <v>-0.049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.148</v>
+        <v>0.184</v>
       </c>
       <c r="D9" t="n">
-        <v>-78</v>
+        <v>153</v>
       </c>
       <c r="E9" t="n">
-        <v>-7</v>
+        <v>-29</v>
       </c>
       <c r="F9" t="n">
-        <v>-127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.135</v>
+        <v>0.126</v>
       </c>
       <c r="C10" t="n">
-        <v>0.158</v>
+        <v>0.408</v>
       </c>
       <c r="D10" t="n">
-        <v>-95</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>-149</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/xlsx/task_point_5dof.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point_5dof.xlsx
@@ -423,202 +423,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.339</v>
+        <v>0.417</v>
       </c>
       <c r="B1" t="n">
-        <v>0.094</v>
+        <v>-0.367</v>
       </c>
       <c r="C1" t="n">
-        <v>0.123</v>
+        <v>0.237</v>
       </c>
       <c r="D1" t="n">
-        <v>107</v>
+        <v>-85</v>
       </c>
       <c r="E1" t="n">
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="F1" t="n">
-        <v>83</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.135</v>
+        <v>-0.177</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.043</v>
+        <v>-0.276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.322</v>
+        <v>0.441</v>
       </c>
       <c r="D2" t="n">
-        <v>-162</v>
+        <v>-90</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-56</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.092</v>
+        <v>0.045</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.08500000000000001</v>
+        <v>0.666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.249</v>
+        <v>0.146</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>-89</v>
       </c>
       <c r="E3" t="n">
-        <v>-32</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>65</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.256</v>
+        <v>0.437</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.101</v>
+        <v>-0.575</v>
       </c>
       <c r="C4" t="n">
-        <v>0.435</v>
+        <v>0.058</v>
       </c>
       <c r="D4" t="n">
-        <v>157</v>
+        <v>-34</v>
       </c>
       <c r="E4" t="n">
-        <v>-80</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>-67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.161</v>
+        <v>-0.305</v>
       </c>
       <c r="B5" t="n">
-        <v>0.095</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.241</v>
+        <v>0.716</v>
       </c>
       <c r="D5" t="n">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>-55</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.208</v>
+        <v>-0.499</v>
       </c>
       <c r="B6" t="n">
-        <v>0.083</v>
+        <v>-0.034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08400000000000001</v>
+        <v>-0.131</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="F6" t="n">
-        <v>157</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.104</v>
+        <v>0.028</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.042</v>
+        <v>-0.255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.333</v>
+        <v>0.522</v>
       </c>
       <c r="D7" t="n">
-        <v>-87</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
-        <v>-82</v>
+        <v>-30</v>
       </c>
       <c r="F7" t="n">
-        <v>88</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.003</v>
+        <v>-0.378</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.351</v>
+        <v>-0.29</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.002</v>
+        <v>-0.19</v>
       </c>
       <c r="D8" t="n">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.333</v>
+        <v>-0.04</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.049</v>
+        <v>0.334</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184</v>
+        <v>0.605</v>
       </c>
       <c r="D9" t="n">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="E9" t="n">
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="F9" t="n">
-        <v>113</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126</v>
+        <v>-0.3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.408</v>
+        <v>0.579</v>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>-165</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>168</v>
+        <v>-144</v>
       </c>
     </row>
   </sheetData>
